--- a/public/assets/format/timedetails_template.xlsx
+++ b/public/assets/format/timedetails_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working\waccache\OS1PEPF0000EF42\EXCELCNV\a1e2f615-7787-4d60-9f91-583df3e5ec0b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2268B17D-EBEE-454E-8AD6-B8106DC07828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EB663AC-351E-4D3C-9532-3FD087C95092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{6901A1AE-9B8B-437B-A521-AA84B65E109E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>date</t>
   </si>
@@ -50,13 +50,10 @@
     <t>week</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ptype</t>
+    <t>employee_code</t>
+  </si>
+  <si>
+    <t>pay_type</t>
   </si>
   <si>
     <t>compcd</t>
@@ -71,127 +68,64 @@
     <t>posicode</t>
   </si>
   <si>
-    <t>cont_no</t>
-  </si>
-  <si>
-    <t>sub_no</t>
-  </si>
-  <si>
     <t>ot1_hrs</t>
   </si>
   <si>
-    <t>ot1_amt</t>
-  </si>
-  <si>
     <t>ot2_hrs</t>
   </si>
   <si>
-    <t>ot2_amt</t>
-  </si>
-  <si>
     <t>ot3_hrs</t>
   </si>
   <si>
-    <t>ot3_amt</t>
-  </si>
-  <si>
     <t>ot4_hrs</t>
   </si>
   <si>
-    <t>ot4_amt</t>
-  </si>
-  <si>
     <t>ot5_hrs</t>
   </si>
   <si>
-    <t>ot5_amt</t>
-  </si>
-  <si>
     <t>ot6_hrs</t>
   </si>
   <si>
-    <t>ot6_amt</t>
-  </si>
-  <si>
     <t>ot7_hrs</t>
   </si>
   <si>
-    <t>ot7_amt</t>
-  </si>
-  <si>
     <t>ot8_hrs</t>
   </si>
   <si>
-    <t>ot8_amt</t>
-  </si>
-  <si>
     <t>ot9_hrs</t>
   </si>
   <si>
-    <t>ot9_amt</t>
-  </si>
-  <si>
     <t>ot10_hrs</t>
   </si>
   <si>
-    <t>ot10_amt</t>
-  </si>
-  <si>
     <t>ot11_hrs</t>
   </si>
   <si>
-    <t>ot11_amt</t>
-  </si>
-  <si>
     <t>ot12_hrs</t>
   </si>
   <si>
-    <t>ot12_amt</t>
-  </si>
-  <si>
     <t>ot13_hrs</t>
   </si>
   <si>
-    <t>ot13_amt</t>
-  </si>
-  <si>
     <t>day8</t>
   </si>
   <si>
     <t>day8_rate</t>
   </si>
   <si>
-    <t>day8_pay</t>
-  </si>
-  <si>
     <t>day12</t>
   </si>
   <si>
     <t>day12_rate</t>
   </si>
   <si>
-    <t>day12_pay</t>
-  </si>
-  <si>
     <t>nd_days</t>
   </si>
   <si>
-    <t>nd_amt</t>
-  </si>
-  <si>
     <t>undertime</t>
   </si>
   <si>
-    <t>under_amt</t>
-  </si>
-  <si>
-    <t>ecola</t>
-  </si>
-  <si>
     <t>incentive</t>
-  </si>
-  <si>
-    <t>gross_pay</t>
   </si>
 </sst>
 </file>
@@ -609,25 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F44FAB-21C4-45D9-89AC-5549533529ED}">
-  <dimension ref="A1:AZ61"/>
+  <dimension ref="A1:AD61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="14" max="18" width="8.85546875" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" customWidth="1"/>
-    <col min="24" max="41" width="8.85546875" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" customWidth="1"/>
-    <col min="46" max="46" width="8.85546875" customWidth="1"/>
-    <col min="48" max="51" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="8.85546875" customWidth="1"/>
+    <col min="28" max="30" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,116 +648,50 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52">
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:30">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:30">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:30">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:30">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:30">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:30">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:30">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:30">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:30">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:30">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:30">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
